--- a/abc/abc.xlsx
+++ b/abc/abc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>trend?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cur.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,46 @@
   </si>
   <si>
     <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,6 +110,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,8 +155,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,26 +488,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M5"/>
+  <dimension ref="B2:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -459,13 +520,20 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -479,14 +547,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>42850.395833333336</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0834999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="M7" s="3">
+        <f>(L7-$D7)*10000</f>
+        <v>40.000000000000036</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.081</v>
+      </c>
+      <c r="O7" s="3">
+        <f>(N7-$D7)*10000</f>
+        <v>-24.999999999999467</v>
+      </c>
+      <c r="P7" s="5">
+        <f>ABS(M7/O7)</f>
+        <v>1.6000000000000356</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>1.0885</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.0954999999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <f>(L8-$D8)*10000</f>
+        <v>69.999999999998948</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.085</v>
+      </c>
+      <c r="O8" s="3">
+        <f>(N8-$D8)*10000</f>
+        <v>-35.000000000000583</v>
+      </c>
+      <c r="P8" s="5">
+        <f>ABS(M8/O8)</f>
+        <v>1.9999999999999367</v>
       </c>
     </row>
   </sheetData>
